--- a/spec/fixtures/product_import_variant.xlsx
+++ b/spec/fixtures/product_import_variant.xlsx
@@ -19,47 +19,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
-  <si>
-    <t>product_tags</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>slug</t>
   </si>
   <si>
-    <t>category_collection</t>
-  </si>
-  <si>
-    <t>category_type</t>
-  </si>
-  <si>
     <t>weight</t>
   </si>
   <si>
-    <t>Clutch &amp; Purse</t>
-  </si>
-  <si>
-    <t>category_brand</t>
-  </si>
-  <si>
-    <t>sub_category</t>
-  </si>
-  <si>
     <t>Lightbulb Photo Holder</t>
   </si>
   <si>
-    <t>Youxi</t>
-  </si>
-  <si>
-    <t>Home and Living</t>
-  </si>
-  <si>
     <t>From Nature</t>
   </si>
   <si>
-    <t>Organizer &amp; Display</t>
-  </si>
-  <si>
     <t>Hey, I've got an idea! How about you display that photo of you and your family/loved one/dog proudly and stylishly with these Lightbulb Photo Holders on an all natural reclaimed wood base? You'd rather just put a business card in there? A reminder note? A treasured Pokemon card? Who said photo holders aren't versatile!</t>
   </si>
   <si>
@@ -141,9 +114,6 @@
     <t xml:space="preserve">image </t>
   </si>
   <si>
-    <t>venrdor_url</t>
-  </si>
-  <si>
     <t>optoin_type_c</t>
   </si>
   <si>
@@ -157,6 +127,30 @@
   </si>
   <si>
     <t>sku</t>
+  </si>
+  <si>
+    <t>update_slug</t>
+  </si>
+  <si>
+    <t>taxonomy_a</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>taxon_a</t>
+  </si>
+  <si>
+    <t>Wallets</t>
+  </si>
+  <si>
+    <t>taxon_b</t>
+  </si>
+  <si>
+    <t>taxonomy_b</t>
+  </si>
+  <si>
+    <t>Collection</t>
   </si>
 </sst>
 </file>
@@ -332,7 +326,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -361,9 +355,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="77">
@@ -780,246 +771,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD15"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="78" workbookViewId="0">
-      <selection activeCell="D1" sqref="C1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="78" zoomScaleNormal="78" zoomScalePageLayoutView="78" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="24" style="1" customWidth="1"/>
     <col min="5" max="5" width="30.1640625" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" customWidth="1"/>
-    <col min="13" max="16" width="14.5" style="1"/>
-    <col min="17" max="17" width="21" customWidth="1"/>
-    <col min="18" max="20" width="21" style="1" customWidth="1"/>
-    <col min="22" max="24" width="14.5" style="1"/>
-    <col min="25" max="25" width="31" customWidth="1"/>
-    <col min="26" max="27" width="22.6640625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="17" customWidth="1"/>
-    <col min="29" max="29" width="17" style="1" customWidth="1"/>
+    <col min="6" max="9" width="14.5" style="1"/>
+    <col min="12" max="15" width="14.5" style="1"/>
+    <col min="16" max="16" width="21" customWidth="1"/>
+    <col min="17" max="19" width="21" style="1" customWidth="1"/>
+    <col min="21" max="23" width="14.5" style="1"/>
+    <col min="24" max="24" width="31" customWidth="1"/>
+    <col min="25" max="26" width="22.6640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="17" customWidth="1"/>
+    <col min="28" max="28" width="17" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>43</v>
-      </c>
     </row>
-    <row r="2" spans="1:30" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="2" spans="1:29" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="R2" s="5"/>
       <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
+      <c r="T2" s="8"/>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
       <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9">
+      <c r="X2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9">
         <v>15</v>
       </c>
-      <c r="AD2" s="1" t="s">
-        <v>44</v>
+      <c r="AC2" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="3" spans="1:29" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="5"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4" t="s">
-        <v>23</v>
+      <c r="J3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="N3" s="7"/>
       <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
+      <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
+      <c r="T3" s="8">
+        <v>10</v>
+      </c>
       <c r="U3" s="8">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="V3" s="8">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="W3" s="8">
-        <v>8</v>
-      </c>
-      <c r="X3" s="8">
         <v>9</v>
       </c>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="3"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="9">
+        <v>24</v>
+      </c>
       <c r="AB3" s="9">
-        <v>24</v>
-      </c>
-      <c r="AC3" s="9">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" ht="15.75" customHeight="1">
-      <c r="C15" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
